--- a/projekt_useri.xlsx
+++ b/projekt_useri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana\Desktop\rp2_projekt\rp2_projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA53691-26A0-4D1C-9894-ED20B039D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4DDDDA-15FE-490B-A2EB-17CD5EE81343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="170" windowWidth="5510" windowHeight="9490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5720" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="162">
   <si>
     <t>id_usera</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Anita</t>
   </si>
   <si>
-    <t>6.1.2023</t>
-  </si>
-  <si>
     <t>10.1.2023.</t>
   </si>
   <si>
@@ -52,18 +49,12 @@
     <t>Daniel</t>
   </si>
   <si>
-    <t>9.1.2023.</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>Dominik</t>
   </si>
   <si>
-    <t>3.1.2023</t>
-  </si>
-  <si>
     <t>4.1.2023.</t>
   </si>
   <si>
@@ -73,21 +64,12 @@
     <t>Ivan</t>
   </si>
   <si>
-    <t>7.1.2023</t>
-  </si>
-  <si>
-    <t>8.1.2023.</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>Ajdina</t>
   </si>
   <si>
-    <t>10.1.2023</t>
-  </si>
-  <si>
     <t>13.1.2023.</t>
   </si>
   <si>
@@ -106,18 +88,12 @@
     <t>Isic</t>
   </si>
   <si>
-    <t>8.1.2023</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>Matko</t>
   </si>
   <si>
-    <t>13.1.2023</t>
-  </si>
-  <si>
     <t>16.1.2023.</t>
   </si>
   <si>
@@ -127,12 +103,6 @@
     <t>Galić</t>
   </si>
   <si>
-    <t>12.1.2023</t>
-  </si>
-  <si>
-    <t>17.1.2023.</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -154,9 +124,6 @@
     <t>Zdenka</t>
   </si>
   <si>
-    <t>16.1.2023</t>
-  </si>
-  <si>
     <t>21.1.2023.</t>
   </si>
   <si>
@@ -166,9 +133,6 @@
     <t>Gordana</t>
   </si>
   <si>
-    <t>15.1.2023</t>
-  </si>
-  <si>
     <t>20.1.2023.</t>
   </si>
   <si>
@@ -178,18 +142,12 @@
     <t>Ana</t>
   </si>
   <si>
-    <t>14.1.2023</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>Mataić</t>
   </si>
   <si>
-    <t>17.1.2023</t>
-  </si>
-  <si>
     <t>19.1.2023.</t>
   </si>
   <si>
@@ -214,33 +172,18 @@
     <t>Matea</t>
   </si>
   <si>
-    <t>22.1.2023</t>
-  </si>
-  <si>
-    <t>23.1.2023.</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>Damir</t>
   </si>
   <si>
-    <t>23.1.2023</t>
-  </si>
-  <si>
-    <t>26.1.2023.</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
     <t>Beth</t>
   </si>
   <si>
-    <t>27.1.2023</t>
-  </si>
-  <si>
     <t>1.2.2023.</t>
   </si>
   <si>
@@ -250,18 +193,12 @@
     <t>Kevin</t>
   </si>
   <si>
-    <t>31.1.2023</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
     <t>Andrea</t>
   </si>
   <si>
-    <t>1.2.2023</t>
-  </si>
-  <si>
     <t>2.2.2023.</t>
   </si>
   <si>
@@ -271,9 +208,6 @@
     <t>Oleh</t>
   </si>
   <si>
-    <t>28.1.2023</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -295,12 +229,6 @@
     <t>Jelenahaj</t>
   </si>
   <si>
-    <t>29.1.2023</t>
-  </si>
-  <si>
-    <t>4.2.2023.</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -316,51 +244,30 @@
     <t>Boris</t>
   </si>
   <si>
-    <t>1.7.2023</t>
-  </si>
-  <si>
-    <t>2.7.2023.</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
     <t>Marc</t>
   </si>
   <si>
-    <t>30.6.2023</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
     <t>Avery</t>
   </si>
   <si>
-    <t>2.7.2023</t>
-  </si>
-  <si>
-    <t>3.7.2023.</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
     <t>Tatjana</t>
   </si>
   <si>
-    <t>5.7.2023.</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
     <t>Josiphylarion</t>
   </si>
   <si>
-    <t>6.7.2023.</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
@@ -373,21 +280,12 @@
     <t>Stephen</t>
   </si>
   <si>
-    <t>7.7.2023</t>
-  </si>
-  <si>
-    <t>26.7.2023.</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>27.7.2023</t>
-  </si>
-  <si>
     <t>28.7.2023.</t>
   </si>
   <si>
@@ -397,9 +295,6 @@
     <t>Dubravko</t>
   </si>
   <si>
-    <t>18.7.2023</t>
-  </si>
-  <si>
     <t>19.7.2023.</t>
   </si>
   <si>
@@ -409,9 +304,6 @@
     <t>Dean</t>
   </si>
   <si>
-    <t>26.7.2023</t>
-  </si>
-  <si>
     <t>31.7.2023.</t>
   </si>
   <si>
@@ -421,21 +313,12 @@
     <t>Peter</t>
   </si>
   <si>
-    <t>28.7.2023</t>
-  </si>
-  <si>
-    <t>30.7.2023.</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
     <t>Damijan</t>
   </si>
   <si>
-    <t>8.8.2023</t>
-  </si>
-  <si>
     <t>9.8.2023.</t>
   </si>
   <si>
@@ -445,9 +328,6 @@
     <t>Branka</t>
   </si>
   <si>
-    <t>5.8.2023</t>
-  </si>
-  <si>
     <t>19.8.2023.</t>
   </si>
   <si>
@@ -466,33 +346,18 @@
     <t>Slavisa</t>
   </si>
   <si>
-    <t>23.7.2023</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
     <t>Hermina</t>
   </si>
   <si>
-    <t>25.7.2023</t>
-  </si>
-  <si>
-    <t>27.8.2023.</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
     <t>Diana</t>
   </si>
   <si>
-    <t>14.8.2023</t>
-  </si>
-  <si>
-    <t>2.9.2023.</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -508,9 +373,6 @@
     <t>Hitch6666</t>
   </si>
   <si>
-    <t>24.8.2023</t>
-  </si>
-  <si>
     <t>4.9.2023.</t>
   </si>
   <si>
@@ -520,9 +382,6 @@
     <t>Jennifer</t>
   </si>
   <si>
-    <t>16.8.2023</t>
-  </si>
-  <si>
     <t>31.8.2023.</t>
   </si>
   <si>
@@ -532,9 +391,6 @@
     <t>Christi</t>
   </si>
   <si>
-    <t>23.8.2023</t>
-  </si>
-  <si>
     <t>24.8.2023.</t>
   </si>
   <si>
@@ -544,86 +400,131 @@
     <t>Jenny</t>
   </si>
   <si>
-    <t>15.8.2023</t>
-  </si>
-  <si>
-    <t>6.9.2023.</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
     <t>Paul</t>
   </si>
   <si>
-    <t>29.8.2023</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
     <t>Binitha</t>
   </si>
   <si>
-    <t>20.8.2023</t>
-  </si>
-  <si>
-    <t>21.8.2023.</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
     <t>Eleonora</t>
   </si>
   <si>
-    <t>18.8.2023</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
     <t>Debra</t>
   </si>
   <si>
-    <t>8.9.2023</t>
-  </si>
-  <si>
-    <t>11.9.2023.</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
     <t>Kerry</t>
   </si>
   <si>
-    <t>21.11.2023</t>
-  </si>
-  <si>
-    <t>28.11.2023.</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
     <t>Viviane</t>
   </si>
   <si>
-    <t>9.11.2023</t>
-  </si>
-  <si>
-    <t>9.12.2023.</t>
+    <t>20.8.2023.</t>
+  </si>
+  <si>
+    <t>15.7.2023.</t>
+  </si>
+  <si>
+    <t>11.8.2023.</t>
+  </si>
+  <si>
+    <t>16.9.2023.</t>
+  </si>
+  <si>
+    <t>25.8.2023.</t>
+  </si>
+  <si>
+    <t>Ivana</t>
+  </si>
+  <si>
+    <t>16.8.2023.</t>
+  </si>
+  <si>
+    <t>Kiki</t>
+  </si>
+  <si>
+    <t>Dorotea</t>
+  </si>
+  <si>
+    <t>10.12.2023.</t>
+  </si>
+  <si>
+    <t>1.10.2023.</t>
+  </si>
+  <si>
+    <t>2.11.2023.</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2.5.2023.</t>
+  </si>
+  <si>
+    <t>8.5.2023.</t>
+  </si>
+  <si>
+    <t>3.4.2023.</t>
+  </si>
+  <si>
+    <t>5.3.2023.</t>
+  </si>
+  <si>
+    <t>6.2.2023.</t>
+  </si>
+  <si>
+    <t>30.4.2023.</t>
+  </si>
+  <si>
+    <t>4.5.2023.</t>
+  </si>
+  <si>
+    <t>9.5.2023.</t>
+  </si>
+  <si>
+    <t>19.5.2023.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="d/m/yyyy/;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -649,8 +550,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,802 +893,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>44932</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2">
+        <v>45144</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" s="2">
+        <v>44929</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="2">
+        <v>45114</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="2">
+        <v>44936</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C7" s="2">
+        <v>44936</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" s="2">
+        <v>45146</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" s="2">
+        <v>44939</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" s="2">
+        <v>45148</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C11" s="2">
+        <v>45182</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" s="2">
+        <v>44936</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C13" s="2">
+        <v>44942</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C14" s="2">
+        <v>44941</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C15" s="2">
+        <v>44940</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C16" s="2">
+        <v>44943</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C17" s="2">
+        <v>44943</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C19" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C21" s="2">
+        <v>44953</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C22" s="2">
+        <v>45199</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C23" s="2">
+        <v>45231</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44954</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" s="2">
+        <v>45261</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44957</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C27" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C28" s="2">
+        <v>44958</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C29" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C30" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B31" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C31" s="2">
+        <v>45018</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C32" s="2">
+        <v>44986</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B33" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C33" s="2">
+        <v>44959</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C34" s="2">
+        <v>44960</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C35" s="2">
+        <v>44961</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C36" s="2">
+        <v>45134</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" s="2">
+        <v>45125</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C38" s="2">
+        <v>45133</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C39" s="2">
+        <v>45044</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C40" s="2">
+        <v>45045</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B41" t="s">
         <v>101</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C41" s="2">
+        <v>45143</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C42" s="2">
+        <v>45134</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C43" s="2">
+        <v>45045</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B44" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="C44" s="2">
+        <v>45046</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B45" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C45" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B46" t="s">
         <v>113</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C46" s="2">
+        <v>45143</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>115</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B47" t="s">
         <v>116</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C47" s="2">
+        <v>45162</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B48" t="s">
         <v>119</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C48" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>121</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="C49" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45045</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45046</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45156</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>132</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B54" t="s">
         <v>133</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B55" t="s">
         <v>135</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>136</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B56" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C56" s="2">
+        <v>45055</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="D58" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="B43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>186</v>
-      </c>
-      <c r="B54" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" t="s">
-        <v>197</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D56" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A4:B4 A3:B3 A17:B17 A10:B10 A7:B7 A5:B5 A9:B9 A8:B8 A11:B11 A21:B21 A18:B18 A19:B20 A26:B26 A25:B25 A28:B28 A27:B27 A24:B24 A22:B22 A23:B23 B53 A49:B50 A38:B38 A29:B29 A30:B30 A31:B31 A32:B32 A33:B33 A34:B34 A35:B35 A42:B42 A39:B39 A40:B40 A48:B48 A43:B43 A44:B45 B51 B52 B56 B54 B55 A2:B2 D2 D4 A6:B6 D6 D7 D9 A12:B12 D12 D53 A13:B13 D13 A14:B14 D14 A15:B15 D15 A16:B16 D16 D17 D21 D24 D26 A46:B46 D46 A47:B47 D47 D48 A36:B36 D36 A37:B37 D37 D38 A41:B41 D41 D42 D28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>